--- a/Sideline/初中数学/中考试卷各知识点占比.xlsx
+++ b/Sideline/初中数学/中考试卷各知识点占比.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="25600" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="67">
   <si>
     <t xml:space="preserve">     知识点
 年份</t>
@@ -66,15 +66,39 @@
     <t>三角函数</t>
   </si>
   <si>
+    <t>42/28%</t>
+  </si>
+  <si>
+    <t>18/12%</t>
+  </si>
+  <si>
+    <t>4/2.67%</t>
+  </si>
+  <si>
+    <t>28/18.67%</t>
+  </si>
+  <si>
+    <t>9/6%</t>
+  </si>
+  <si>
+    <t>15/10%</t>
+  </si>
+  <si>
+    <t>56/37.33%</t>
+  </si>
+  <si>
+    <t>16/10.67%</t>
+  </si>
+  <si>
+    <t>10/6.67%</t>
+  </si>
+  <si>
+    <t>34/22.67%</t>
+  </si>
+  <si>
     <t>43/28.67%</t>
   </si>
   <si>
-    <t>15/10%</t>
-  </si>
-  <si>
-    <t>4/2.67%</t>
-  </si>
-  <si>
     <t>19/12.67%</t>
   </si>
   <si>
@@ -84,15 +108,6 @@
     <t>51/34%</t>
   </si>
   <si>
-    <t>18/12%</t>
-  </si>
-  <si>
-    <t>9/6%</t>
-  </si>
-  <si>
-    <t>10/6.67%</t>
-  </si>
-  <si>
     <t>41/27.33%</t>
   </si>
   <si>
@@ -102,12 +117,6 @@
     <t>5/3.33%</t>
   </si>
   <si>
-    <t>16/10.67%</t>
-  </si>
-  <si>
-    <t>56/37.33%</t>
-  </si>
-  <si>
     <t>35/23.33%</t>
   </si>
   <si>
@@ -135,9 +144,6 @@
     <t>32/21.33%</t>
   </si>
   <si>
-    <t>4/3.33%</t>
-  </si>
-  <si>
     <t>48/32%</t>
   </si>
   <si>
@@ -162,46 +168,52 @@
     <t>26/17.33%</t>
   </si>
   <si>
+    <t>合计</t>
+  </si>
+  <si>
     <t>平均数</t>
   </si>
   <si>
-    <t>38.2/28.3%</t>
-  </si>
-  <si>
-    <t>18.11/12.07%</t>
-  </si>
-  <si>
-    <t>3.11/2.07%</t>
-  </si>
-  <si>
-    <t>4.22/2.81%</t>
-  </si>
-  <si>
-    <t>2/1.33%</t>
-  </si>
-  <si>
-    <t>13.22/8.81%</t>
-  </si>
-  <si>
-    <t>13.56/9.04%</t>
-  </si>
-  <si>
-    <t>48.11/32.07%</t>
-  </si>
-  <si>
-    <t>10.44/6.96%</t>
-  </si>
-  <si>
-    <t>15.44/10.3%</t>
-  </si>
-  <si>
-    <t>5.78/3.85%</t>
-  </si>
-  <si>
-    <t>9.67/6.44%</t>
-  </si>
-  <si>
-    <t>41.33/27.56%</t>
+    <t>42.4/28.27%</t>
+  </si>
+  <si>
+    <t>18.1/12.07%</t>
+  </si>
+  <si>
+    <t>3.2/2.13%</t>
+  </si>
+  <si>
+    <t>3.8/2.53%</t>
+  </si>
+  <si>
+    <t>1.4/0.93%</t>
+  </si>
+  <si>
+    <t>14.7/9.8%</t>
+  </si>
+  <si>
+    <t>11.7/7.8%</t>
+  </si>
+  <si>
+    <t>13.7/9.13%</t>
+  </si>
+  <si>
+    <t>48.5/32.33%</t>
+  </si>
+  <si>
+    <t>9.8/6.53%</t>
+  </si>
+  <si>
+    <t>15.5/10.33%</t>
+  </si>
+  <si>
+    <t>5.4/3.6%</t>
+  </si>
+  <si>
+    <t>9.7/6.47%</t>
+  </si>
+  <si>
+    <t>40.4/26.93%</t>
   </si>
   <si>
     <t>计算：绝对值、相反数、倒数、科学计数法、整式、分式、根式、
@@ -216,12 +228,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,6 +256,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -259,14 +272,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -612,7 +617,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -621,39 +626,7 @@
       <diagonal/>
     </border>
     <border diagonalDown="1">
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="thin">
-        <color auto="1"/>
-      </diagonal>
-    </border>
-    <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalDown="1">
-      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -688,51 +661,6 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
       <right/>
       <top style="medium">
         <color auto="1"/>
@@ -750,30 +678,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -803,52 +711,27 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="medium">
+      <top style="medium">
         <color auto="1"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -955,48 +838,51 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1006,101 +892,98 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1115,77 +998,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1506,642 +1368,755 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O22"/>
+  <dimension ref="B4:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="11.4166666666667" customWidth="1"/>
-    <col min="3" max="3" width="13.1666666666667" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="10.875" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
-    <col min="10" max="10" width="13.5" customWidth="1"/>
-    <col min="11" max="11" width="12.7083333333333" customWidth="1"/>
-    <col min="12" max="12" width="11.8333333333333" customWidth="1"/>
-    <col min="13" max="13" width="13.75" customWidth="1"/>
-    <col min="14" max="14" width="11.5" customWidth="1"/>
-    <col min="15" max="15" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="11.4166666666667" customWidth="1"/>
+    <col min="4" max="4" width="13.1666666666667" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="11.375" customWidth="1"/>
+    <col min="9" max="9" width="10.875" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="13.0833333333333" customWidth="1"/>
+    <col min="12" max="12" width="11.0833333333333" customWidth="1"/>
+    <col min="13" max="13" width="11.8333333333333" customWidth="1"/>
+    <col min="14" max="14" width="12.8333333333333" customWidth="1"/>
+    <col min="15" max="15" width="11.5" customWidth="1"/>
+    <col min="16" max="16" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.75" customHeight="1" spans="1:15">
-      <c r="A1" s="3" t="s">
+    <row r="4" ht="24.75" customHeight="1" spans="2:16">
+      <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="24"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="18" customHeight="1" spans="1:15">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="18" customHeight="1" spans="2:16">
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="P5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="18" spans="1:15">
-      <c r="A3" s="8">
+    <row r="6" s="1" customFormat="1" ht="18" customHeight="1" spans="2:16">
+      <c r="B6" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="17.5" spans="2:16">
+      <c r="B7" s="6">
         <v>2023</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="C7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9" t="s">
+      <c r="M7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="9" t="s">
+      <c r="O7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" ht="17.5" spans="2:16">
+      <c r="B8" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" ht="17.5" spans="2:16">
+      <c r="B9" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="17.5" spans="2:16">
+      <c r="B10" s="8">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="9"/>
+      <c r="O10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="P10" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" ht="17.5" spans="2:16">
+      <c r="B11" s="6">
+        <v>2019</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="E11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="9" t="s">
+      <c r="I11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" ht="17.5" spans="2:16">
+      <c r="B12" s="6">
+        <v>2018</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="F12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" ht="18" spans="1:15">
-      <c r="A4" s="8">
-        <v>2022</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="M12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" ht="17.5" spans="2:16">
+      <c r="B13" s="6">
+        <v>2017</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="9" t="s">
+    </row>
+    <row r="14" ht="17.5" spans="2:16">
+      <c r="B14" s="6">
+        <v>2016</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="N14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" ht="17.5" spans="2:16">
+      <c r="B15" s="6">
+        <v>2015</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="9" t="s">
+      <c r="M15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" ht="18" spans="1:15">
-      <c r="A5" s="8">
-        <v>2021</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="9" t="s">
+      <c r="P15" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" ht="17.5" hidden="1" spans="2:16">
+      <c r="B16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="10">
+        <v>424</v>
+      </c>
+      <c r="D16" s="10">
+        <v>181</v>
+      </c>
+      <c r="E16" s="10">
         <v>32</v>
       </c>
-      <c r="M5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="18" spans="1:15">
-      <c r="A6" s="10">
-        <v>2020</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" ht="18" spans="1:15">
-      <c r="A7" s="8">
-        <v>2019</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" s="27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" ht="18" spans="1:15">
-      <c r="A8" s="8">
-        <v>2018</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="F16" s="10">
         <v>38</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" s="26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" ht="18" spans="1:15">
-      <c r="A9" s="8">
-        <v>2017</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" s="26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" ht="18" spans="1:15">
-      <c r="A10" s="8">
-        <v>2016</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="O10" s="27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" ht="18" spans="1:15">
-      <c r="A11" s="8">
-        <v>2015</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11" s="26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" ht="18.75" spans="1:15">
-      <c r="A12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="13" t="s">
+      <c r="G16" s="10">
+        <v>14</v>
+      </c>
+      <c r="H16" s="10">
+        <v>147</v>
+      </c>
+      <c r="I16" s="10">
+        <v>117</v>
+      </c>
+      <c r="J16" s="10">
+        <v>137</v>
+      </c>
+      <c r="K16" s="10">
+        <f>SUM(E16:J16)</f>
+        <v>485</v>
+      </c>
+      <c r="L16" s="10">
+        <v>98</v>
+      </c>
+      <c r="M16" s="10">
+        <v>155</v>
+      </c>
+      <c r="N16" s="10">
+        <v>54</v>
+      </c>
+      <c r="O16" s="10">
+        <v>97</v>
+      </c>
+      <c r="P16" s="10">
+        <f>SUM(L16:O16)</f>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="17" ht="17.5" spans="2:16">
+      <c r="B17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="C17" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="D17" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="E17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="13" t="s">
+      <c r="F17" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="G17" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="H17" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L12" s="13" t="s">
+      <c r="I17" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="M12" s="13" t="s">
+      <c r="J17" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="N12" s="13" t="s">
+      <c r="K17" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="O12" s="28" t="s">
+      <c r="L17" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="13" ht="18.75" spans="1:1">
-      <c r="A13" s="14"/>
-    </row>
-    <row r="14" ht="18.75" customHeight="1" spans="1:14">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15" t="s">
+      <c r="M17" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-    </row>
-    <row r="15" ht="18" spans="1:14">
-      <c r="A15" s="14"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-    </row>
-    <row r="16" ht="18" spans="1:14">
-      <c r="A16" s="14"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-    </row>
-    <row r="17" ht="18" spans="1:8">
-      <c r="A17" s="14"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
-    </row>
-    <row r="18" ht="18.75" spans="1:8">
-      <c r="A18" s="14"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="23"/>
-    </row>
-    <row r="19" ht="18" spans="1:1">
-      <c r="A19" s="14"/>
-    </row>
-    <row r="20" ht="18" spans="1:1">
-      <c r="A20" s="14"/>
-    </row>
-    <row r="21" ht="18" spans="1:1">
-      <c r="A21" s="14"/>
-    </row>
-    <row r="22" ht="18" spans="1:1">
-      <c r="A22" s="14"/>
+      <c r="N17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="2:16">
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+    </row>
+    <row r="19" customHeight="1" spans="2:2">
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20" customHeight="1" spans="2:15">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+    </row>
+    <row r="21" ht="16" customHeight="1" spans="2:15">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+    </row>
+    <row r="22" ht="16" customHeight="1" spans="2:15">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+    </row>
+    <row r="23" ht="16" customHeight="1" spans="2:11">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="19"/>
+    </row>
+    <row r="24" ht="16" customHeight="1" spans="2:10">
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" ht="16" customHeight="1" spans="2:10">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="22"/>
+    </row>
+    <row r="26" customHeight="1" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+    </row>
+    <row r="27" customHeight="1" spans="2:2">
+      <c r="B27" s="11"/>
+    </row>
+    <row r="28" customHeight="1" spans="2:2">
+      <c r="B28" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B14:H18"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D21:J25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="landscape"/>

--- a/Sideline/初中数学/中考试卷各知识点占比.xlsx
+++ b/Sideline/初中数学/中考试卷各知识点占比.xlsx
@@ -1371,26 +1371,26 @@
   <dimension ref="B4:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="11.4166666666667" customWidth="1"/>
-    <col min="4" max="4" width="13.1666666666667" customWidth="1"/>
+    <col min="2" max="2" width="15.6272727272727" customWidth="1"/>
+    <col min="3" max="3" width="11.4181818181818" customWidth="1"/>
+    <col min="4" max="4" width="13.1636363636364" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="11.375" customWidth="1"/>
-    <col min="9" max="9" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="11.3727272727273" customWidth="1"/>
+    <col min="9" max="9" width="10.8727272727273" customWidth="1"/>
     <col min="10" max="10" width="11.5" customWidth="1"/>
-    <col min="11" max="11" width="13.0833333333333" customWidth="1"/>
-    <col min="12" max="12" width="11.0833333333333" customWidth="1"/>
-    <col min="13" max="13" width="11.8333333333333" customWidth="1"/>
-    <col min="14" max="14" width="12.8333333333333" customWidth="1"/>
+    <col min="11" max="11" width="13.0818181818182" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="11.8363636363636" customWidth="1"/>
+    <col min="14" max="14" width="14.0909090909091" customWidth="1"/>
     <col min="15" max="15" width="11.5" customWidth="1"/>
-    <col min="16" max="16" width="12.875" customWidth="1"/>
+    <col min="16" max="16" width="12.8727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" ht="24.75" customHeight="1" spans="2:16">

--- a/Sideline/初中数学/中考试卷各知识点占比.xlsx
+++ b/Sideline/初中数学/中考试卷各知识点占比.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12330"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="展示表" sheetId="1" r:id="rId1"/>
+    <sheet name="原表" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t xml:space="preserve">     知识点
 年份</t>
@@ -66,154 +67,7 @@
     <t>三角函数</t>
   </si>
   <si>
-    <t>42/28%</t>
-  </si>
-  <si>
-    <t>18/12%</t>
-  </si>
-  <si>
-    <t>4/2.67%</t>
-  </si>
-  <si>
-    <t>28/18.67%</t>
-  </si>
-  <si>
-    <t>9/6%</t>
-  </si>
-  <si>
-    <t>15/10%</t>
-  </si>
-  <si>
-    <t>56/37.33%</t>
-  </si>
-  <si>
-    <t>16/10.67%</t>
-  </si>
-  <si>
-    <t>10/6.67%</t>
-  </si>
-  <si>
-    <t>34/22.67%</t>
-  </si>
-  <si>
-    <t>43/28.67%</t>
-  </si>
-  <si>
-    <t>19/12.67%</t>
-  </si>
-  <si>
-    <t>13/8.67%</t>
-  </si>
-  <si>
-    <t>51/34%</t>
-  </si>
-  <si>
-    <t>41/27.33%</t>
-  </si>
-  <si>
-    <t>44/29.33%</t>
-  </si>
-  <si>
-    <t>5/3.33%</t>
-  </si>
-  <si>
-    <t>35/23.33%</t>
-  </si>
-  <si>
-    <t>11/7.33%</t>
-  </si>
-  <si>
-    <t>12/8%</t>
-  </si>
-  <si>
-    <t>14/9.33%</t>
-  </si>
-  <si>
-    <t>20/13.33%</t>
-  </si>
-  <si>
-    <t>49/32.67%</t>
-  </si>
-  <si>
-    <t>38/25.33%</t>
-  </si>
-  <si>
-    <t>50/33.33%</t>
-  </si>
-  <si>
-    <t>32/21.33%</t>
-  </si>
-  <si>
-    <t>48/32%</t>
-  </si>
-  <si>
-    <t>47/31.33%</t>
-  </si>
-  <si>
-    <t>17/11.33%</t>
-  </si>
-  <si>
-    <t>40/26.67%</t>
-  </si>
-  <si>
-    <t>54/36%</t>
-  </si>
-  <si>
-    <t>8/5.33%</t>
-  </si>
-  <si>
-    <t>36/24%</t>
-  </si>
-  <si>
-    <t>26/17.33%</t>
-  </si>
-  <si>
-    <t>合计</t>
-  </si>
-  <si>
-    <t>平均数</t>
-  </si>
-  <si>
-    <t>42.4/28.27%</t>
-  </si>
-  <si>
-    <t>18.1/12.07%</t>
-  </si>
-  <si>
-    <t>3.2/2.13%</t>
-  </si>
-  <si>
-    <t>3.8/2.53%</t>
-  </si>
-  <si>
-    <t>1.4/0.93%</t>
-  </si>
-  <si>
-    <t>14.7/9.8%</t>
-  </si>
-  <si>
-    <t>11.7/7.8%</t>
-  </si>
-  <si>
-    <t>13.7/9.13%</t>
-  </si>
-  <si>
-    <t>48.5/32.33%</t>
-  </si>
-  <si>
-    <t>9.8/6.53%</t>
-  </si>
-  <si>
-    <t>15.5/10.33%</t>
-  </si>
-  <si>
-    <t>5.4/3.6%</t>
-  </si>
-  <si>
-    <t>9.7/6.47%</t>
-  </si>
-  <si>
-    <t>40.4/26.93%</t>
+    <t>平均值</t>
   </si>
   <si>
     <t>计算：绝对值、相反数、倒数、科学计数法、整式、分式、根式、
@@ -222,18 +76,28 @@
           等边三角形、勾股定理、全等、相似、角平分线、中垂线
 四边形：平行四边形、矩形、菱形、正方形、梯形、直角梯形、等腰梯形、多边形</t>
   </si>
+  <si>
+    <t>总分</t>
+  </si>
+  <si>
+    <t>合计</t>
+  </si>
+  <si>
+    <t>平均数</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.##"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,6 +126,20 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -841,10 +719,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -853,37 +731,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -892,98 +764,104 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1001,52 +879,58 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1368,32 +1252,1075 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B4:P28"/>
+  <dimension ref="B7:P37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:L33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
+    <col min="6" max="7" width="10.375" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="11.75" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="13.0833333333333" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="12.5" customWidth="1"/>
+    <col min="14" max="14" width="10.875" customWidth="1"/>
+    <col min="15" max="15" width="10.75" customWidth="1"/>
+    <col min="16" max="16" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" customFormat="1" ht="24.75" customHeight="1" spans="2:16">
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="18" customHeight="1" spans="2:16">
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="18" customHeight="1" spans="2:16">
+      <c r="B9" s="6">
+        <v>2025</v>
+      </c>
+      <c r="C9" s="24" t="str">
+        <f>原表!C6&amp;IF(原表!C6/150=0,"","/"&amp;TEXT(原表!C6/150,IF(MOD(原表!C6/150,0.01)=0,"0%","0.00%")))</f>
+        <v>46/30.67%</v>
+      </c>
+      <c r="D9" s="24" t="str">
+        <f>原表!D6&amp;IF(原表!D6/150=0,"","/"&amp;TEXT(原表!D6/150,IF(MOD(原表!D6/150,0.01)=0,"0%","0.00%")))</f>
+        <v>16/10.67%</v>
+      </c>
+      <c r="E9" s="24" t="str">
+        <f>原表!E6&amp;IF(原表!E6/150=0,"","/"&amp;TEXT(原表!E6/150,IF(MOD(原表!E6/150,0.01)=0,"0%","0.00%")))</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="24" t="str">
+        <f>原表!F6&amp;IF(原表!F6/150=0,"","/"&amp;TEXT(原表!F6/150,IF(MOD(原表!F6/150,0.01)=0,"0%","0.00%")))</f>
+        <v>4/2.67%</v>
+      </c>
+      <c r="G9" s="24" t="str">
+        <f>原表!G6&amp;IF(原表!G6/150=0,"","/"&amp;TEXT(原表!G6/150,IF(MOD(原表!G6/150,0.01)=0,"0%","0.00%")))</f>
+        <v>4/2.67%</v>
+      </c>
+      <c r="H9" s="24" t="str">
+        <f>原表!H6&amp;IF(原表!H6/150=0,"","/"&amp;TEXT(原表!H6/150,IF(MOD(原表!H6/150,0.01)=0,"0%","0.00%")))</f>
+        <v>24/16%</v>
+      </c>
+      <c r="I9" s="24" t="str">
+        <f>原表!I6&amp;IF(原表!I6/150=0,"","/"&amp;TEXT(原表!I6/150,IF(MOD(原表!I6/150,0.01)=0,"0%","0.00%")))</f>
+        <v>9/6%</v>
+      </c>
+      <c r="J9" s="24" t="str">
+        <f>原表!J6&amp;IF(原表!J6/150=0,"","/"&amp;TEXT(原表!J6/150,IF(MOD(原表!J6/150,0.01)=0,"0%","0.00%")))</f>
+        <v>15/10%</v>
+      </c>
+      <c r="K9" s="24" t="str">
+        <f>原表!K6&amp;IF(原表!K6/150=0,"","/"&amp;TEXT(原表!K6/150,IF(MOD(原表!K6/150,0.01)=0,"0%","0.00%")))</f>
+        <v>56/37.33%</v>
+      </c>
+      <c r="L9" s="24" t="str">
+        <f>原表!L6&amp;IF(原表!L6/150=0,"","/"&amp;TEXT(原表!L6/150,IF(MOD(原表!L6/150,0.01)=0,"0%","0.00%")))</f>
+        <v>8/5.33%</v>
+      </c>
+      <c r="M9" s="24" t="str">
+        <f>原表!M6&amp;IF(原表!M6/150=0,"","/"&amp;TEXT(原表!M6/150,IF(MOD(原表!M6/150,0.01)=0,"0%","0.00%")))</f>
+        <v>10/6.67%</v>
+      </c>
+      <c r="N9" s="24" t="str">
+        <f>原表!N6&amp;IF(原表!N6/150=0,"","/"&amp;TEXT(原表!N6/150,IF(MOD(原表!N6/150,0.01)=0,"0%","0.00%")))</f>
+        <v>4/2.67%</v>
+      </c>
+      <c r="O9" s="24" t="str">
+        <f>原表!O6&amp;IF(原表!O6/150=0,"","/"&amp;TEXT(原表!O6/150,IF(MOD(原表!O6/150,0.01)=0,"0%","0.00%")))</f>
+        <v>10/6.67%</v>
+      </c>
+      <c r="P9" s="24" t="str">
+        <f>原表!P6&amp;IF(原表!P6/150=0,"","/"&amp;TEXT(原表!P6/150,IF(MOD(原表!P6/150,0.01)=0,"0%","0.00%")))</f>
+        <v>32/21.33%</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="18" customHeight="1" spans="2:16">
+      <c r="B10" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C10" s="24" t="str">
+        <f>原表!C7&amp;IF(原表!C7/150=0,"","/"&amp;TEXT(原表!C7/150,IF(MOD(原表!C7/150,0.01)=0,"0%","0.00%")))</f>
+        <v>42/28%</v>
+      </c>
+      <c r="D10" s="24" t="str">
+        <f>原表!D7&amp;IF(原表!D7/150=0,"","/"&amp;TEXT(原表!D7/150,IF(MOD(原表!D7/150,0.01)=0,"0%","0.00%")))</f>
+        <v>18/12%</v>
+      </c>
+      <c r="E10" s="24" t="str">
+        <f>原表!E7&amp;IF(原表!E7/150=0,"","/"&amp;TEXT(原表!E7/150,IF(MOD(原表!E7/150,0.01)=0,"0%","0.00%")))</f>
+        <v>4/2.67%</v>
+      </c>
+      <c r="F10" s="24" t="str">
+        <f>原表!F7&amp;IF(原表!F7/150=0,"","/"&amp;TEXT(原表!F7/150,IF(MOD(原表!F7/150,0.01)=0,"0%","0.00%")))</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="24" t="str">
+        <f>原表!G7&amp;IF(原表!G7/150=0,"","/"&amp;TEXT(原表!G7/150,IF(MOD(原表!G7/150,0.01)=0,"0%","0.00%")))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="24" t="str">
+        <f>原表!H7&amp;IF(原表!H7/150=0,"","/"&amp;TEXT(原表!H7/150,IF(MOD(原表!H7/150,0.01)=0,"0%","0.00%")))</f>
+        <v>28/18.67%</v>
+      </c>
+      <c r="I10" s="24" t="str">
+        <f>原表!I7&amp;IF(原表!I7/150=0,"","/"&amp;TEXT(原表!I7/150,IF(MOD(原表!I7/150,0.01)=0,"0%","0.00%")))</f>
+        <v>9/6%</v>
+      </c>
+      <c r="J10" s="24" t="str">
+        <f>原表!J7&amp;IF(原表!J7/150=0,"","/"&amp;TEXT(原表!J7/150,IF(MOD(原表!J7/150,0.01)=0,"0%","0.00%")))</f>
+        <v>15/10%</v>
+      </c>
+      <c r="K10" s="24" t="str">
+        <f>原表!K7&amp;IF(原表!K7/150=0,"","/"&amp;TEXT(原表!K7/150,IF(MOD(原表!K7/150,0.01)=0,"0%","0.00%")))</f>
+        <v>56/37.33%</v>
+      </c>
+      <c r="L10" s="24" t="str">
+        <f>原表!L7&amp;IF(原表!L7/150=0,"","/"&amp;TEXT(原表!L7/150,IF(MOD(原表!L7/150,0.01)=0,"0%","0.00%")))</f>
+        <v>4/2.67%</v>
+      </c>
+      <c r="M10" s="24" t="str">
+        <f>原表!M7&amp;IF(原表!M7/150=0,"","/"&amp;TEXT(原表!M7/150,IF(MOD(原表!M7/150,0.01)=0,"0%","0.00%")))</f>
+        <v>16/10.67%</v>
+      </c>
+      <c r="N10" s="24" t="str">
+        <f>原表!N7&amp;IF(原表!N7/150=0,"","/"&amp;TEXT(原表!N7/150,IF(MOD(原表!N7/150,0.01)=0,"0%","0.00%")))</f>
+        <v>4/2.67%</v>
+      </c>
+      <c r="O10" s="24" t="str">
+        <f>原表!O7&amp;IF(原表!O7/150=0,"","/"&amp;TEXT(原表!O7/150,IF(MOD(原表!O7/150,0.01)=0,"0%","0.00%")))</f>
+        <v>10/6.67%</v>
+      </c>
+      <c r="P10" s="24" t="str">
+        <f>原表!P7&amp;IF(原表!P7/150=0,"","/"&amp;TEXT(原表!P7/150,IF(MOD(原表!P7/150,0.01)=0,"0%","0.00%")))</f>
+        <v>34/22.67%</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" ht="18" spans="2:16">
+      <c r="B11" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C11" s="24" t="str">
+        <f>原表!C8&amp;IF(原表!C8/150=0,"","/"&amp;TEXT(原表!C8/150,IF(MOD(原表!C8/150,0.01)=0,"0%","0.00%")))</f>
+        <v>43/28.67%</v>
+      </c>
+      <c r="D11" s="24" t="str">
+        <f>原表!D8&amp;IF(原表!D8/150=0,"","/"&amp;TEXT(原表!D8/150,IF(MOD(原表!D8/150,0.01)=0,"0%","0.00%")))</f>
+        <v>15/10%</v>
+      </c>
+      <c r="E11" s="24" t="str">
+        <f>原表!E8&amp;IF(原表!E8/150=0,"","/"&amp;TEXT(原表!E8/150,IF(MOD(原表!E8/150,0.01)=0,"0%","0.00%")))</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="24" t="str">
+        <f>原表!F8&amp;IF(原表!F8/150=0,"","/"&amp;TEXT(原表!F8/150,IF(MOD(原表!F8/150,0.01)=0,"0%","0.00%")))</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="24" t="str">
+        <f>原表!G8&amp;IF(原表!G8/150=0,"","/"&amp;TEXT(原表!G8/150,IF(MOD(原表!G8/150,0.01)=0,"0%","0.00%")))</f>
+        <v>4/2.67%</v>
+      </c>
+      <c r="H11" s="24" t="str">
+        <f>原表!H8&amp;IF(原表!H8/150=0,"","/"&amp;TEXT(原表!H8/150,IF(MOD(原表!H8/150,0.01)=0,"0%","0.00%")))</f>
+        <v>19/12.67%</v>
+      </c>
+      <c r="I11" s="24" t="str">
+        <f>原表!I8&amp;IF(原表!I8/150=0,"","/"&amp;TEXT(原表!I8/150,IF(MOD(原表!I8/150,0.01)=0,"0%","0.00%")))</f>
+        <v>13/8.67%</v>
+      </c>
+      <c r="J11" s="24" t="str">
+        <f>原表!J8&amp;IF(原表!J8/150=0,"","/"&amp;TEXT(原表!J8/150,IF(MOD(原表!J8/150,0.01)=0,"0%","0.00%")))</f>
+        <v>15/10%</v>
+      </c>
+      <c r="K11" s="24" t="str">
+        <f>原表!K8&amp;IF(原表!K8/150=0,"","/"&amp;TEXT(原表!K8/150,IF(MOD(原表!K8/150,0.01)=0,"0%","0.00%")))</f>
+        <v>51/34%</v>
+      </c>
+      <c r="L11" s="24" t="str">
+        <f>原表!L8&amp;IF(原表!L8/150=0,"","/"&amp;TEXT(原表!L8/150,IF(MOD(原表!L8/150,0.01)=0,"0%","0.00%")))</f>
+        <v>18/12%</v>
+      </c>
+      <c r="M11" s="24" t="str">
+        <f>原表!M8&amp;IF(原表!M8/150=0,"","/"&amp;TEXT(原表!M8/150,IF(MOD(原表!M8/150,0.01)=0,"0%","0.00%")))</f>
+        <v>9/6%</v>
+      </c>
+      <c r="N11" s="24" t="str">
+        <f>原表!N8&amp;IF(原表!N8/150=0,"","/"&amp;TEXT(原表!N8/150,IF(MOD(原表!N8/150,0.01)=0,"0%","0.00%")))</f>
+        <v>4/2.67%</v>
+      </c>
+      <c r="O11" s="24" t="str">
+        <f>原表!O8&amp;IF(原表!O8/150=0,"","/"&amp;TEXT(原表!O8/150,IF(MOD(原表!O8/150,0.01)=0,"0%","0.00%")))</f>
+        <v>10/6.67%</v>
+      </c>
+      <c r="P11" s="24" t="str">
+        <f>原表!P8&amp;IF(原表!P8/150=0,"","/"&amp;TEXT(原表!P8/150,IF(MOD(原表!P8/150,0.01)=0,"0%","0.00%")))</f>
+        <v>41/27.33%</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" ht="18" spans="2:16">
+      <c r="B12" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="24" t="str">
+        <f>原表!C9&amp;IF(原表!C9/150=0,"","/"&amp;TEXT(原表!C9/150,IF(MOD(原表!C9/150,0.01)=0,"0%","0.00%")))</f>
+        <v>44/29.33%</v>
+      </c>
+      <c r="D12" s="24" t="str">
+        <f>原表!D9&amp;IF(原表!D9/150=0,"","/"&amp;TEXT(原表!D9/150,IF(MOD(原表!D9/150,0.01)=0,"0%","0.00%")))</f>
+        <v>15/10%</v>
+      </c>
+      <c r="E12" s="24" t="str">
+        <f>原表!E9&amp;IF(原表!E9/150=0,"","/"&amp;TEXT(原表!E9/150,IF(MOD(原表!E9/150,0.01)=0,"0%","0.00%")))</f>
+        <v>5/3.33%</v>
+      </c>
+      <c r="F12" s="24" t="str">
+        <f>原表!F9&amp;IF(原表!F9/150=0,"","/"&amp;TEXT(原表!F9/150,IF(MOD(原表!F9/150,0.01)=0,"0%","0.00%")))</f>
+        <v>5/3.33%</v>
+      </c>
+      <c r="G12" s="24" t="str">
+        <f>原表!G9&amp;IF(原表!G9/150=0,"","/"&amp;TEXT(原表!G9/150,IF(MOD(原表!G9/150,0.01)=0,"0%","0.00%")))</f>
+        <v>5/3.33%</v>
+      </c>
+      <c r="H12" s="24" t="str">
+        <f>原表!H9&amp;IF(原表!H9/150=0,"","/"&amp;TEXT(原表!H9/150,IF(MOD(原表!H9/150,0.01)=0,"0%","0.00%")))</f>
+        <v>16/10.67%</v>
+      </c>
+      <c r="I12" s="24" t="str">
+        <f>原表!I9&amp;IF(原表!I9/150=0,"","/"&amp;TEXT(原表!I9/150,IF(MOD(原表!I9/150,0.01)=0,"0%","0.00%")))</f>
+        <v>10/6.67%</v>
+      </c>
+      <c r="J12" s="24" t="str">
+        <f>原表!J9&amp;IF(原表!J9/150=0,"","/"&amp;TEXT(原表!J9/150,IF(MOD(原表!J9/150,0.01)=0,"0%","0.00%")))</f>
+        <v>15/10%</v>
+      </c>
+      <c r="K12" s="24" t="str">
+        <f>原表!K9&amp;IF(原表!K9/150=0,"","/"&amp;TEXT(原表!K9/150,IF(MOD(原表!K9/150,0.01)=0,"0%","0.00%")))</f>
+        <v>56/37.33%</v>
+      </c>
+      <c r="L12" s="24" t="str">
+        <f>原表!L9&amp;IF(原表!L9/150=0,"","/"&amp;TEXT(原表!L9/150,IF(MOD(原表!L9/150,0.01)=0,"0%","0.00%")))</f>
+        <v>10/6.67%</v>
+      </c>
+      <c r="M12" s="24" t="str">
+        <f>原表!M9&amp;IF(原表!M9/150=0,"","/"&amp;TEXT(原表!M9/150,IF(MOD(原表!M9/150,0.01)=0,"0%","0.00%")))</f>
+        <v>10/6.67%</v>
+      </c>
+      <c r="N12" s="24" t="str">
+        <f>原表!N9&amp;IF(原表!N9/150=0,"","/"&amp;TEXT(原表!N9/150,IF(MOD(原表!N9/150,0.01)=0,"0%","0.00%")))</f>
+        <v>5/3.33%</v>
+      </c>
+      <c r="O12" s="24" t="str">
+        <f>原表!O9&amp;IF(原表!O9/150=0,"","/"&amp;TEXT(原表!O9/150,IF(MOD(原表!O9/150,0.01)=0,"0%","0.00%")))</f>
+        <v>10/6.67%</v>
+      </c>
+      <c r="P12" s="24" t="str">
+        <f>原表!P9&amp;IF(原表!P9/150=0,"","/"&amp;TEXT(原表!P9/150,IF(MOD(原表!P9/150,0.01)=0,"0%","0.00%")))</f>
+        <v>35/23.33%</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" ht="18" spans="2:16">
+      <c r="B13" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C13" s="24" t="str">
+        <f>原表!C10&amp;IF(原表!C10/150=0,"","/"&amp;TEXT(原表!C10/150,IF(MOD(原表!C10/150,0.01)=0,"0%","0.00%")))</f>
+        <v>43/28.67%</v>
+      </c>
+      <c r="D13" s="24" t="str">
+        <f>原表!D10&amp;IF(原表!D10/150=0,"","/"&amp;TEXT(原表!D10/150,IF(MOD(原表!D10/150,0.01)=0,"0%","0.00%")))</f>
+        <v>15/10%</v>
+      </c>
+      <c r="E13" s="24" t="str">
+        <f>原表!E10&amp;IF(原表!E10/150=0,"","/"&amp;TEXT(原表!E10/150,IF(MOD(原表!E10/150,0.01)=0,"0%","0.00%")))</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="24" t="str">
+        <f>原表!F10&amp;IF(原表!F10/150=0,"","/"&amp;TEXT(原表!F10/150,IF(MOD(原表!F10/150,0.01)=0,"0%","0.00%")))</f>
+        <v>5/3.33%</v>
+      </c>
+      <c r="G13" s="24" t="str">
+        <f>原表!G10&amp;IF(原表!G10/150=0,"","/"&amp;TEXT(原表!G10/150,IF(MOD(原表!G10/150,0.01)=0,"0%","0.00%")))</f>
+        <v>5/3.33%</v>
+      </c>
+      <c r="H13" s="24" t="str">
+        <f>原表!H10&amp;IF(原表!H10/150=0,"","/"&amp;TEXT(原表!H10/150,IF(MOD(原表!H10/150,0.01)=0,"0%","0.00%")))</f>
+        <v>15/10%</v>
+      </c>
+      <c r="I13" s="24" t="str">
+        <f>原表!I10&amp;IF(原表!I10/150=0,"","/"&amp;TEXT(原表!I10/150,IF(MOD(原表!I10/150,0.01)=0,"0%","0.00%")))</f>
+        <v>15/10%</v>
+      </c>
+      <c r="J13" s="24" t="str">
+        <f>原表!J10&amp;IF(原表!J10/150=0,"","/"&amp;TEXT(原表!J10/150,IF(MOD(原表!J10/150,0.01)=0,"0%","0.00%")))</f>
+        <v>11/7.33%</v>
+      </c>
+      <c r="K13" s="24" t="str">
+        <f>原表!K10&amp;IF(原表!K10/150=0,"","/"&amp;TEXT(原表!K10/150,IF(MOD(原表!K10/150,0.01)=0,"0%","0.00%")))</f>
+        <v>51/34%</v>
+      </c>
+      <c r="L13" s="24" t="str">
+        <f>原表!L10&amp;IF(原表!L10/150=0,"","/"&amp;TEXT(原表!L10/150,IF(MOD(原表!L10/150,0.01)=0,"0%","0.00%")))</f>
+        <v>5/3.33%</v>
+      </c>
+      <c r="M13" s="24" t="str">
+        <f>原表!M10&amp;IF(原表!M10/150=0,"","/"&amp;TEXT(原表!M10/150,IF(MOD(原表!M10/150,0.01)=0,"0%","0.00%")))</f>
+        <v>12/8%</v>
+      </c>
+      <c r="N13" s="24" t="str">
+        <f>原表!N10&amp;IF(原表!N10/150=0,"","/"&amp;TEXT(原表!N10/150,IF(MOD(原表!N10/150,0.01)=0,"0%","0.00%")))</f>
+        <v>14/9.33%</v>
+      </c>
+      <c r="O13" s="24" t="str">
+        <f>原表!O10&amp;IF(原表!O10/150=0,"","/"&amp;TEXT(原表!O10/150,IF(MOD(原表!O10/150,0.01)=0,"0%","0.00%")))</f>
+        <v>10/6.67%</v>
+      </c>
+      <c r="P13" s="24" t="str">
+        <f>原表!P10&amp;IF(原表!P10/150=0,"","/"&amp;TEXT(原表!P10/150,IF(MOD(原表!P10/150,0.01)=0,"0%","0.00%")))</f>
+        <v>41/27.33%</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="18" spans="2:16">
+      <c r="B14" s="9">
+        <v>2020</v>
+      </c>
+      <c r="C14" s="24" t="str">
+        <f>原表!C11&amp;IF(原表!C11/150=0,"","/"&amp;TEXT(原表!C11/150,IF(MOD(原表!C11/150,0.01)=0,"0%","0.00%")))</f>
+        <v>43/28.67%</v>
+      </c>
+      <c r="D14" s="24" t="str">
+        <f>原表!D11&amp;IF(原表!D11/150=0,"","/"&amp;TEXT(原表!D11/150,IF(MOD(原表!D11/150,0.01)=0,"0%","0.00%")))</f>
+        <v>20/13.33%</v>
+      </c>
+      <c r="E14" s="24" t="str">
+        <f>原表!E11&amp;IF(原表!E11/150=0,"","/"&amp;TEXT(原表!E11/150,IF(MOD(原表!E11/150,0.01)=0,"0%","0.00%")))</f>
+        <v>5/3.33%</v>
+      </c>
+      <c r="F14" s="24" t="str">
+        <f>原表!F11&amp;IF(原表!F11/150=0,"","/"&amp;TEXT(原表!F11/150,IF(MOD(原表!F11/150,0.01)=0,"0%","0.00%")))</f>
+        <v>5/3.33%</v>
+      </c>
+      <c r="G14" s="24" t="str">
+        <f>原表!G11&amp;IF(原表!G11/150=0,"","/"&amp;TEXT(原表!G11/150,IF(MOD(原表!G11/150,0.01)=0,"0%","0.00%")))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="24" t="str">
+        <f>原表!H11&amp;IF(原表!H11/150=0,"","/"&amp;TEXT(原表!H11/150,IF(MOD(原表!H11/150,0.01)=0,"0%","0.00%")))</f>
+        <v>19/12.67%</v>
+      </c>
+      <c r="I14" s="24" t="str">
+        <f>原表!I11&amp;IF(原表!I11/150=0,"","/"&amp;TEXT(原表!I11/150,IF(MOD(原表!I11/150,0.01)=0,"0%","0.00%")))</f>
+        <v>4/2.67%</v>
+      </c>
+      <c r="J14" s="24" t="str">
+        <f>原表!J11&amp;IF(原表!J11/150=0,"","/"&amp;TEXT(原表!J11/150,IF(MOD(原表!J11/150,0.01)=0,"0%","0.00%")))</f>
+        <v>16/10.67%</v>
+      </c>
+      <c r="K14" s="24" t="str">
+        <f>原表!K11&amp;IF(原表!K11/150=0,"","/"&amp;TEXT(原表!K11/150,IF(MOD(原表!K11/150,0.01)=0,"0%","0.00%")))</f>
+        <v>49/32.67%</v>
+      </c>
+      <c r="L14" s="24" t="str">
+        <f>原表!L11&amp;IF(原表!L11/150=0,"","/"&amp;TEXT(原表!L11/150,IF(MOD(原表!L11/150,0.01)=0,"0%","0.00%")))</f>
+        <v>11/7.33%</v>
+      </c>
+      <c r="M14" s="24" t="str">
+        <f>原表!M11&amp;IF(原表!M11/150=0,"","/"&amp;TEXT(原表!M11/150,IF(MOD(原表!M11/150,0.01)=0,"0%","0.00%")))</f>
+        <v>18/12%</v>
+      </c>
+      <c r="N14" s="24" t="str">
+        <f>原表!N11&amp;IF(原表!N11/150=0,"","/"&amp;TEXT(原表!N11/150,IF(MOD(原表!N11/150,0.01)=0,"0%","0.00%")))</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="24" t="str">
+        <f>原表!O11&amp;IF(原表!O11/150=0,"","/"&amp;TEXT(原表!O11/150,IF(MOD(原表!O11/150,0.01)=0,"0%","0.00%")))</f>
+        <v>9/6%</v>
+      </c>
+      <c r="P14" s="24" t="str">
+        <f>原表!P11&amp;IF(原表!P11/150=0,"","/"&amp;TEXT(原表!P11/150,IF(MOD(原表!P11/150,0.01)=0,"0%","0.00%")))</f>
+        <v>38/25.33%</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" ht="18" spans="2:16">
+      <c r="B15" s="6">
+        <v>2019</v>
+      </c>
+      <c r="C15" s="24" t="str">
+        <f>原表!C12&amp;IF(原表!C12/150=0,"","/"&amp;TEXT(原表!C12/150,IF(MOD(原表!C12/150,0.01)=0,"0%","0.00%")))</f>
+        <v>44/29.33%</v>
+      </c>
+      <c r="D15" s="24" t="str">
+        <f>原表!D12&amp;IF(原表!D12/150=0,"","/"&amp;TEXT(原表!D12/150,IF(MOD(原表!D12/150,0.01)=0,"0%","0.00%")))</f>
+        <v>18/12%</v>
+      </c>
+      <c r="E15" s="24" t="str">
+        <f>原表!E12&amp;IF(原表!E12/150=0,"","/"&amp;TEXT(原表!E12/150,IF(MOD(原表!E12/150,0.01)=0,"0%","0.00%")))</f>
+        <v>5/3.33%</v>
+      </c>
+      <c r="F15" s="24" t="str">
+        <f>原表!F12&amp;IF(原表!F12/150=0,"","/"&amp;TEXT(原表!F12/150,IF(MOD(原表!F12/150,0.01)=0,"0%","0.00%")))</f>
+        <v>5/3.33%</v>
+      </c>
+      <c r="G15" s="24" t="str">
+        <f>原表!G12&amp;IF(原表!G12/150=0,"","/"&amp;TEXT(原表!G12/150,IF(MOD(原表!G12/150,0.01)=0,"0%","0.00%")))</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="24" t="str">
+        <f>原表!H12&amp;IF(原表!H12/150=0,"","/"&amp;TEXT(原表!H12/150,IF(MOD(原表!H12/150,0.01)=0,"0%","0.00%")))</f>
+        <v>15/10%</v>
+      </c>
+      <c r="I15" s="24" t="str">
+        <f>原表!I12&amp;IF(原表!I12/150=0,"","/"&amp;TEXT(原表!I12/150,IF(MOD(原表!I12/150,0.01)=0,"0%","0.00%")))</f>
+        <v>15/10%</v>
+      </c>
+      <c r="J15" s="24" t="str">
+        <f>原表!J12&amp;IF(原表!J12/150=0,"","/"&amp;TEXT(原表!J12/150,IF(MOD(原表!J12/150,0.01)=0,"0%","0.00%")))</f>
+        <v>10/6.67%</v>
+      </c>
+      <c r="K15" s="24" t="str">
+        <f>原表!K12&amp;IF(原表!K12/150=0,"","/"&amp;TEXT(原表!K12/150,IF(MOD(原表!K12/150,0.01)=0,"0%","0.00%")))</f>
+        <v>50/33.33%</v>
+      </c>
+      <c r="L15" s="24" t="str">
+        <f>原表!L12&amp;IF(原表!L12/150=0,"","/"&amp;TEXT(原表!L12/150,IF(MOD(原表!L12/150,0.01)=0,"0%","0.00%")))</f>
+        <v>10/6.67%</v>
+      </c>
+      <c r="M15" s="24" t="str">
+        <f>原表!M12&amp;IF(原表!M12/150=0,"","/"&amp;TEXT(原表!M12/150,IF(MOD(原表!M12/150,0.01)=0,"0%","0.00%")))</f>
+        <v>13/8.67%</v>
+      </c>
+      <c r="N15" s="24" t="str">
+        <f>原表!N12&amp;IF(原表!N12/150=0,"","/"&amp;TEXT(原表!N12/150,IF(MOD(原表!N12/150,0.01)=0,"0%","0.00%")))</f>
+        <v>5/3.33%</v>
+      </c>
+      <c r="O15" s="24" t="str">
+        <f>原表!O12&amp;IF(原表!O12/150=0,"","/"&amp;TEXT(原表!O12/150,IF(MOD(原表!O12/150,0.01)=0,"0%","0.00%")))</f>
+        <v>10/6.67%</v>
+      </c>
+      <c r="P15" s="24" t="str">
+        <f>原表!P12&amp;IF(原表!P12/150=0,"","/"&amp;TEXT(原表!P12/150,IF(MOD(原表!P12/150,0.01)=0,"0%","0.00%")))</f>
+        <v>38/25.33%</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" ht="18" spans="2:16">
+      <c r="B16" s="6">
+        <v>2018</v>
+      </c>
+      <c r="C16" s="24" t="str">
+        <f>原表!C13&amp;IF(原表!C13/150=0,"","/"&amp;TEXT(原表!C13/150,IF(MOD(原表!C13/150,0.01)=0,"0%","0.00%")))</f>
+        <v>32/21.33%</v>
+      </c>
+      <c r="D16" s="24" t="str">
+        <f>原表!D13&amp;IF(原表!D13/150=0,"","/"&amp;TEXT(原表!D13/150,IF(MOD(原表!D13/150,0.01)=0,"0%","0.00%")))</f>
+        <v>20/13.33%</v>
+      </c>
+      <c r="E16" s="24" t="str">
+        <f>原表!E13&amp;IF(原表!E13/150=0,"","/"&amp;TEXT(原表!E13/150,IF(MOD(原表!E13/150,0.01)=0,"0%","0.00%")))</f>
+        <v>4/2.67%</v>
+      </c>
+      <c r="F16" s="24" t="str">
+        <f>原表!F13&amp;IF(原表!F13/150=0,"","/"&amp;TEXT(原表!F13/150,IF(MOD(原表!F13/150,0.01)=0,"0%","0.00%")))</f>
+        <v>4/2.67%</v>
+      </c>
+      <c r="G16" s="24" t="str">
+        <f>原表!G13&amp;IF(原表!G13/150=0,"","/"&amp;TEXT(原表!G13/150,IF(MOD(原表!G13/150,0.01)=0,"0%","0.00%")))</f>
+        <v>4/2.67%</v>
+      </c>
+      <c r="H16" s="24" t="str">
+        <f>原表!H13&amp;IF(原表!H13/150=0,"","/"&amp;TEXT(原表!H13/150,IF(MOD(原表!H13/150,0.01)=0,"0%","0.00%")))</f>
+        <v>4/2.67%</v>
+      </c>
+      <c r="I16" s="24" t="str">
+        <f>原表!I13&amp;IF(原表!I13/150=0,"","/"&amp;TEXT(原表!I13/150,IF(MOD(原表!I13/150,0.01)=0,"0%","0.00%")))</f>
+        <v>18/12%</v>
+      </c>
+      <c r="J16" s="24" t="str">
+        <f>原表!J13&amp;IF(原表!J13/150=0,"","/"&amp;TEXT(原表!J13/150,IF(MOD(原表!J13/150,0.01)=0,"0%","0.00%")))</f>
+        <v>14/9.33%</v>
+      </c>
+      <c r="K16" s="24" t="str">
+        <f>原表!K13&amp;IF(原表!K13/150=0,"","/"&amp;TEXT(原表!K13/150,IF(MOD(原表!K13/150,0.01)=0,"0%","0.00%")))</f>
+        <v>48/32%</v>
+      </c>
+      <c r="L16" s="24" t="str">
+        <f>原表!L13&amp;IF(原表!L13/150=0,"","/"&amp;TEXT(原表!L13/150,IF(MOD(原表!L13/150,0.01)=0,"0%","0.00%")))</f>
+        <v>10/6.67%</v>
+      </c>
+      <c r="M16" s="24" t="str">
+        <f>原表!M13&amp;IF(原表!M13/150=0,"","/"&amp;TEXT(原表!M13/150,IF(MOD(原表!M13/150,0.01)=0,"0%","0.00%")))</f>
+        <v>20/13.33%</v>
+      </c>
+      <c r="N16" s="24" t="str">
+        <f>原表!N13&amp;IF(原表!N13/150=0,"","/"&amp;TEXT(原表!N13/150,IF(MOD(原表!N13/150,0.01)=0,"0%","0.00%")))</f>
+        <v>10/6.67%</v>
+      </c>
+      <c r="O16" s="24" t="str">
+        <f>原表!O13&amp;IF(原表!O13/150=0,"","/"&amp;TEXT(原表!O13/150,IF(MOD(原表!O13/150,0.01)=0,"0%","0.00%")))</f>
+        <v>10/6.67%</v>
+      </c>
+      <c r="P16" s="24" t="str">
+        <f>原表!P13&amp;IF(原表!P13/150=0,"","/"&amp;TEXT(原表!P13/150,IF(MOD(原表!P13/150,0.01)=0,"0%","0.00%")))</f>
+        <v>50/33.33%</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" ht="18" spans="2:16">
+      <c r="B17" s="6">
+        <v>2017</v>
+      </c>
+      <c r="C17" s="24" t="str">
+        <f>原表!C14&amp;IF(原表!C14/150=0,"","/"&amp;TEXT(原表!C14/150,IF(MOD(原表!C14/150,0.01)=0,"0%","0.00%")))</f>
+        <v>47/31.33%</v>
+      </c>
+      <c r="D17" s="24" t="str">
+        <f>原表!D14&amp;IF(原表!D14/150=0,"","/"&amp;TEXT(原表!D14/150,IF(MOD(原表!D14/150,0.01)=0,"0%","0.00%")))</f>
+        <v>20/13.33%</v>
+      </c>
+      <c r="E17" s="24" t="str">
+        <f>原表!E14&amp;IF(原表!E14/150=0,"","/"&amp;TEXT(原表!E14/150,IF(MOD(原表!E14/150,0.01)=0,"0%","0.00%")))</f>
+        <v>5/3.33%</v>
+      </c>
+      <c r="F17" s="24" t="str">
+        <f>原表!F14&amp;IF(原表!F14/150=0,"","/"&amp;TEXT(原表!F14/150,IF(MOD(原表!F14/150,0.01)=0,"0%","0.00%")))</f>
+        <v>5/3.33%</v>
+      </c>
+      <c r="G17" s="24" t="str">
+        <f>原表!G14&amp;IF(原表!G14/150=0,"","/"&amp;TEXT(原表!G14/150,IF(MOD(原表!G14/150,0.01)=0,"0%","0.00%")))</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="24" t="str">
+        <f>原表!H14&amp;IF(原表!H14/150=0,"","/"&amp;TEXT(原表!H14/150,IF(MOD(原表!H14/150,0.01)=0,"0%","0.00%")))</f>
+        <v>4/2.67%</v>
+      </c>
+      <c r="I17" s="24" t="str">
+        <f>原表!I14&amp;IF(原表!I14/150=0,"","/"&amp;TEXT(原表!I14/150,IF(MOD(原表!I14/150,0.01)=0,"0%","0.00%")))</f>
+        <v>9/6%</v>
+      </c>
+      <c r="J17" s="24" t="str">
+        <f>原表!J14&amp;IF(原表!J14/150=0,"","/"&amp;TEXT(原表!J14/150,IF(MOD(原表!J14/150,0.01)=0,"0%","0.00%")))</f>
+        <v>17/11.33%</v>
+      </c>
+      <c r="K17" s="24" t="str">
+        <f>原表!K14&amp;IF(原表!K14/150=0,"","/"&amp;TEXT(原表!K14/150,IF(MOD(原表!K14/150,0.01)=0,"0%","0.00%")))</f>
+        <v>40/26.67%</v>
+      </c>
+      <c r="L17" s="24" t="str">
+        <f>原表!L14&amp;IF(原表!L14/150=0,"","/"&amp;TEXT(原表!L14/150,IF(MOD(原表!L14/150,0.01)=0,"0%","0.00%")))</f>
+        <v>10/6.67%</v>
+      </c>
+      <c r="M17" s="24" t="str">
+        <f>原表!M14&amp;IF(原表!M14/150=0,"","/"&amp;TEXT(原表!M14/150,IF(MOD(原表!M14/150,0.01)=0,"0%","0.00%")))</f>
+        <v>18/12%</v>
+      </c>
+      <c r="N17" s="24" t="str">
+        <f>原表!N14&amp;IF(原表!N14/150=0,"","/"&amp;TEXT(原表!N14/150,IF(MOD(原表!N14/150,0.01)=0,"0%","0.00%")))</f>
+        <v>5/3.33%</v>
+      </c>
+      <c r="O17" s="24" t="str">
+        <f>原表!O14&amp;IF(原表!O14/150=0,"","/"&amp;TEXT(原表!O14/150,IF(MOD(原表!O14/150,0.01)=0,"0%","0.00%")))</f>
+        <v>10/6.67%</v>
+      </c>
+      <c r="P17" s="24" t="str">
+        <f>原表!P14&amp;IF(原表!P14/150=0,"","/"&amp;TEXT(原表!P14/150,IF(MOD(原表!P14/150,0.01)=0,"0%","0.00%")))</f>
+        <v>43/28.67%</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" ht="18" spans="2:16">
+      <c r="B18" s="6">
+        <v>2016</v>
+      </c>
+      <c r="C18" s="24" t="str">
+        <f>原表!C15&amp;IF(原表!C15/150=0,"","/"&amp;TEXT(原表!C15/150,IF(MOD(原表!C15/150,0.01)=0,"0%","0.00%")))</f>
+        <v>54/36%</v>
+      </c>
+      <c r="D18" s="24" t="str">
+        <f>原表!D15&amp;IF(原表!D15/150=0,"","/"&amp;TEXT(原表!D15/150,IF(MOD(原表!D15/150,0.01)=0,"0%","0.00%")))</f>
+        <v>20/13.33%</v>
+      </c>
+      <c r="E18" s="24" t="str">
+        <f>原表!E15&amp;IF(原表!E15/150=0,"","/"&amp;TEXT(原表!E15/150,IF(MOD(原表!E15/150,0.01)=0,"0%","0.00%")))</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="24" t="str">
+        <f>原表!F15&amp;IF(原表!F15/150=0,"","/"&amp;TEXT(原表!F15/150,IF(MOD(原表!F15/150,0.01)=0,"0%","0.00%")))</f>
+        <v>5/3.33%</v>
+      </c>
+      <c r="G18" s="24" t="str">
+        <f>原表!G15&amp;IF(原表!G15/150=0,"","/"&amp;TEXT(原表!G15/150,IF(MOD(原表!G15/150,0.01)=0,"0%","0.00%")))</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="24" t="str">
+        <f>原表!H15&amp;IF(原表!H15/150=0,"","/"&amp;TEXT(原表!H15/150,IF(MOD(原表!H15/150,0.01)=0,"0%","0.00%")))</f>
+        <v>15/10%</v>
+      </c>
+      <c r="I18" s="24" t="str">
+        <f>原表!I15&amp;IF(原表!I15/150=0,"","/"&amp;TEXT(原表!I15/150,IF(MOD(原表!I15/150,0.01)=0,"0%","0.00%")))</f>
+        <v>10/6.67%</v>
+      </c>
+      <c r="J18" s="24" t="str">
+        <f>原表!J15&amp;IF(原表!J15/150=0,"","/"&amp;TEXT(原表!J15/150,IF(MOD(原表!J15/150,0.01)=0,"0%","0.00%")))</f>
+        <v>10/6.67%</v>
+      </c>
+      <c r="K18" s="24" t="str">
+        <f>原表!K15&amp;IF(原表!K15/150=0,"","/"&amp;TEXT(原表!K15/150,IF(MOD(原表!K15/150,0.01)=0,"0%","0.00%")))</f>
+        <v>40/26.67%</v>
+      </c>
+      <c r="L18" s="24" t="str">
+        <f>原表!L15&amp;IF(原表!L15/150=0,"","/"&amp;TEXT(原表!L15/150,IF(MOD(原表!L15/150,0.01)=0,"0%","0.00%")))</f>
+        <v>10/6.67%</v>
+      </c>
+      <c r="M18" s="24" t="str">
+        <f>原表!M15&amp;IF(原表!M15/150=0,"","/"&amp;TEXT(原表!M15/150,IF(MOD(原表!M15/150,0.01)=0,"0%","0.00%")))</f>
+        <v>13/8.67%</v>
+      </c>
+      <c r="N18" s="24" t="str">
+        <f>原表!N15&amp;IF(原表!N15/150=0,"","/"&amp;TEXT(原表!N15/150,IF(MOD(原表!N15/150,0.01)=0,"0%","0.00%")))</f>
+        <v>5/3.33%</v>
+      </c>
+      <c r="O18" s="24" t="str">
+        <f>原表!O15&amp;IF(原表!O15/150=0,"","/"&amp;TEXT(原表!O15/150,IF(MOD(原表!O15/150,0.01)=0,"0%","0.00%")))</f>
+        <v>8/5.33%</v>
+      </c>
+      <c r="P18" s="24" t="str">
+        <f>原表!P15&amp;IF(原表!P15/150=0,"","/"&amp;TEXT(原表!P15/150,IF(MOD(原表!P15/150,0.01)=0,"0%","0.00%")))</f>
+        <v>36/24%</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" ht="18" spans="2:16">
+      <c r="B19" s="6">
+        <v>2015</v>
+      </c>
+      <c r="C19" s="24" t="str">
+        <f>原表!C16&amp;IF(原表!C16/150=0,"","/"&amp;TEXT(原表!C16/150,IF(MOD(原表!C16/150,0.01)=0,"0%","0.00%")))</f>
+        <v>32/21.33%</v>
+      </c>
+      <c r="D19" s="24" t="str">
+        <f>原表!D16&amp;IF(原表!D16/150=0,"","/"&amp;TEXT(原表!D16/150,IF(MOD(原表!D16/150,0.01)=0,"0%","0.00%")))</f>
+        <v>20/13.33%</v>
+      </c>
+      <c r="E19" s="24" t="str">
+        <f>原表!E16&amp;IF(原表!E16/150=0,"","/"&amp;TEXT(原表!E16/150,IF(MOD(原表!E16/150,0.01)=0,"0%","0.00%")))</f>
+        <v>4/2.67%</v>
+      </c>
+      <c r="F19" s="24" t="str">
+        <f>原表!F16&amp;IF(原表!F16/150=0,"","/"&amp;TEXT(原表!F16/150,IF(MOD(原表!F16/150,0.01)=0,"0%","0.00%")))</f>
+        <v>4/2.67%</v>
+      </c>
+      <c r="G19" s="24" t="str">
+        <f>原表!G16&amp;IF(原表!G16/150=0,"","/"&amp;TEXT(原表!G16/150,IF(MOD(原表!G16/150,0.01)=0,"0%","0.00%")))</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="24" t="str">
+        <f>原表!H16&amp;IF(原表!H16/150=0,"","/"&amp;TEXT(原表!H16/150,IF(MOD(原表!H16/150,0.01)=0,"0%","0.00%")))</f>
+        <v>12/8%</v>
+      </c>
+      <c r="I19" s="24" t="str">
+        <f>原表!I16&amp;IF(原表!I16/150=0,"","/"&amp;TEXT(原表!I16/150,IF(MOD(原表!I16/150,0.01)=0,"0%","0.00%")))</f>
+        <v>14/9.33%</v>
+      </c>
+      <c r="J19" s="24" t="str">
+        <f>原表!J16&amp;IF(原表!J16/150=0,"","/"&amp;TEXT(原表!J16/150,IF(MOD(原表!J16/150,0.01)=0,"0%","0.00%")))</f>
+        <v>14/9.33%</v>
+      </c>
+      <c r="K19" s="24" t="str">
+        <f>原表!K16&amp;IF(原表!K16/150=0,"","/"&amp;TEXT(原表!K16/150,IF(MOD(原表!K16/150,0.01)=0,"0%","0.00%")))</f>
+        <v>48/32%</v>
+      </c>
+      <c r="L19" s="24" t="str">
+        <f>原表!L16&amp;IF(原表!L16/150=0,"","/"&amp;TEXT(原表!L16/150,IF(MOD(原表!L16/150,0.01)=0,"0%","0.00%")))</f>
+        <v>10/6.67%</v>
+      </c>
+      <c r="M19" s="24" t="str">
+        <f>原表!M16&amp;IF(原表!M16/150=0,"","/"&amp;TEXT(原表!M16/150,IF(MOD(原表!M16/150,0.01)=0,"0%","0.00%")))</f>
+        <v>26/17.33%</v>
+      </c>
+      <c r="N19" s="24" t="str">
+        <f>原表!N16&amp;IF(原表!N16/150=0,"","/"&amp;TEXT(原表!N16/150,IF(MOD(原表!N16/150,0.01)=0,"0%","0.00%")))</f>
+        <v>4/2.67%</v>
+      </c>
+      <c r="O19" s="24" t="str">
+        <f>原表!O16&amp;IF(原表!O16/150=0,"","/"&amp;TEXT(原表!O16/150,IF(MOD(原表!O16/150,0.01)=0,"0%","0.00%")))</f>
+        <v>10/6.67%</v>
+      </c>
+      <c r="P19" s="24" t="str">
+        <f>原表!P16&amp;IF(原表!P16/150=0,"","/"&amp;TEXT(原表!P16/150,IF(MOD(原表!P16/150,0.01)=0,"0%","0.00%")))</f>
+        <v>50/33.33%</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" ht="18" spans="2:16">
+      <c r="B20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="24" t="str">
+        <f>原表!C18&amp;IF(原表!C18/150=0,"","/"&amp;TEXT(原表!C18/150,IF(MOD(原表!C18/150,0.01)=0,"0%","0.00%")))</f>
+        <v>42.73/28.49%</v>
+      </c>
+      <c r="D20" s="24" t="str">
+        <f>原表!D18&amp;IF(原表!D18/150=0,"","/"&amp;TEXT(原表!D18/150,IF(MOD(原表!D18/150,0.01)=0,"0%","0.00%")))</f>
+        <v>17.91/11.94%</v>
+      </c>
+      <c r="E20" s="24" t="str">
+        <f>原表!E18&amp;IF(原表!E18/150=0,"","/"&amp;TEXT(原表!E18/150,IF(MOD(原表!E18/150,0.01)=0,"0%","0.00%")))</f>
+        <v>2.91/1.94%</v>
+      </c>
+      <c r="F20" s="24" t="str">
+        <f>原表!F18&amp;IF(原表!F18/150=0,"","/"&amp;TEXT(原表!F18/150,IF(MOD(原表!F18/150,0.01)=0,"0%","0.00%")))</f>
+        <v>3.82/2.55%</v>
+      </c>
+      <c r="G20" s="24" t="str">
+        <f>原表!G18&amp;IF(原表!G18/150=0,"","/"&amp;TEXT(原表!G18/150,IF(MOD(原表!G18/150,0.01)=0,"0%","0.00%")))</f>
+        <v>2/1.33%</v>
+      </c>
+      <c r="H20" s="24" t="str">
+        <f>原表!H18&amp;IF(原表!H18/150=0,"","/"&amp;TEXT(原表!H18/150,IF(MOD(原表!H18/150,0.01)=0,"0%","0.00%")))</f>
+        <v>15.55/10.37%</v>
+      </c>
+      <c r="I20" s="24" t="str">
+        <f>原表!I18&amp;IF(原表!I18/150=0,"","/"&amp;TEXT(原表!I18/150,IF(MOD(原表!I18/150,0.01)=0,"0%","0.00%")))</f>
+        <v>11.45/7.63%</v>
+      </c>
+      <c r="J20" s="24" t="str">
+        <f>原表!J18&amp;IF(原表!J18/150=0,"","/"&amp;TEXT(原表!J18/150,IF(MOD(原表!J18/150,0.01)=0,"0%","0.00%")))</f>
+        <v>13.82/9.21%</v>
+      </c>
+      <c r="K20" s="24" t="str">
+        <f>原表!K18&amp;IF(原表!K18/150=0,"","/"&amp;TEXT(原表!K18/150,IF(MOD(原表!K18/150,0.01)=0,"0%","0.00%")))</f>
+        <v>49.55/33.03%</v>
+      </c>
+      <c r="L20" s="24" t="str">
+        <f>原表!L18&amp;IF(原表!L18/150=0,"","/"&amp;TEXT(原表!L18/150,IF(MOD(原表!L18/150,0.01)=0,"0%","0.00%")))</f>
+        <v>9.64/6.43%</v>
+      </c>
+      <c r="M20" s="24" t="str">
+        <f>原表!M18&amp;IF(原表!M18/150=0,"","/"&amp;TEXT(原表!M18/150,IF(MOD(原表!M18/150,0.01)=0,"0%","0.00%")))</f>
+        <v>15/10%</v>
+      </c>
+      <c r="N20" s="24" t="str">
+        <f>原表!N18&amp;IF(原表!N18/150=0,"","/"&amp;TEXT(原表!N18/150,IF(MOD(原表!N18/150,0.01)=0,"0%","0.00%")))</f>
+        <v>5.45/3.63%</v>
+      </c>
+      <c r="O20" s="24" t="str">
+        <f>原表!O18&amp;IF(原表!O18/150=0,"","/"&amp;TEXT(原表!O18/150,IF(MOD(原表!O18/150,0.01)=0,"0%","0.00%")))</f>
+        <v>9.73/6.49%</v>
+      </c>
+      <c r="P20" s="24" t="str">
+        <f>原表!P18&amp;IF(原表!P18/150=0,"","/"&amp;TEXT(原表!P18/150,IF(MOD(原表!P18/150,0.01)=0,"0%","0.00%")))</f>
+        <v>39.82/26.55%</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" ht="14" customHeight="1" spans="2:16">
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+    </row>
+    <row r="22" customFormat="1" ht="14" customHeight="1" spans="2:16">
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+    </row>
+    <row r="23" customFormat="1" ht="14" customHeight="1" spans="2:16">
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+    </row>
+    <row r="24" customFormat="1" ht="14" customHeight="1" spans="2:16">
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+    </row>
+    <row r="25" customFormat="1" ht="14" customHeight="1" spans="2:16">
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+    </row>
+    <row r="26" customFormat="1" ht="14" customHeight="1" spans="2:16">
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+    </row>
+    <row r="27" customFormat="1" ht="14" customHeight="1" spans="2:16">
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+    </row>
+    <row r="28" customFormat="1" ht="14" customHeight="1" spans="2:2">
+      <c r="B28" s="11"/>
+    </row>
+    <row r="29" customFormat="1" ht="14" customHeight="1" spans="2:15">
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="F29" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+    </row>
+    <row r="30" customFormat="1" ht="16" customHeight="1" spans="2:15">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+    </row>
+    <row r="31" customFormat="1" ht="16" customHeight="1" spans="2:15">
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+    </row>
+    <row r="32" customFormat="1" ht="16" customHeight="1" spans="2:12">
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="21"/>
+    </row>
+    <row r="33" customFormat="1" ht="16" customHeight="1" spans="2:12">
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="22"/>
+    </row>
+    <row r="34" customFormat="1" ht="16" customHeight="1" spans="2:3">
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+    </row>
+    <row r="35" customFormat="1" ht="14" customHeight="1" spans="2:3">
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+    </row>
+    <row r="36" customFormat="1" ht="14" customHeight="1" spans="2:2">
+      <c r="B36" s="11"/>
+    </row>
+    <row r="37" customFormat="1" ht="14" customHeight="1" spans="2:2">
+      <c r="B37" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E7:K7"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F29:L33"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="landscape"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B4:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="15.6272727272727" customWidth="1"/>
-    <col min="3" max="3" width="11.4181818181818" customWidth="1"/>
-    <col min="4" max="4" width="13.1636363636364" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="13.1666666666667" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="11.3727272727273" customWidth="1"/>
-    <col min="9" max="9" width="10.8727272727273" customWidth="1"/>
+    <col min="8" max="8" width="11.375" customWidth="1"/>
+    <col min="9" max="9" width="10.875" customWidth="1"/>
     <col min="10" max="10" width="11.5" customWidth="1"/>
-    <col min="11" max="11" width="13.0818181818182" customWidth="1"/>
+    <col min="11" max="11" width="13.0833333333333" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="11.8363636363636" customWidth="1"/>
-    <col min="14" max="14" width="14.0909090909091" customWidth="1"/>
+    <col min="13" max="13" width="11.8333333333333" customWidth="1"/>
+    <col min="14" max="14" width="14.0916666666667" customWidth="1"/>
     <col min="15" max="15" width="11.5" customWidth="1"/>
-    <col min="16" max="16" width="12.8727272727273" customWidth="1"/>
+    <col min="16" max="16" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" ht="24.75" customHeight="1" spans="2:16">
+    <row r="4" ht="24.75" customHeight="1" spans="2:17">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1419,8 +2346,11 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="18" customHeight="1" spans="2:16">
+      <c r="Q4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="18" customHeight="1" spans="2:17">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1460,666 +2390,868 @@
       <c r="P5" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="18" customHeight="1" spans="2:16">
+      <c r="Q5" s="4"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="18" customHeight="1" spans="2:17">
       <c r="B6" s="6">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="6">
+        <v>46</v>
+      </c>
+      <c r="D6" s="7">
+        <v>16</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>4</v>
+      </c>
+      <c r="G6" s="7">
+        <v>4</v>
+      </c>
+      <c r="H6" s="7">
+        <v>24</v>
+      </c>
+      <c r="I6" s="7">
+        <v>9</v>
+      </c>
+      <c r="J6" s="7">
+        <v>15</v>
+      </c>
+      <c r="K6" s="7">
+        <f>SUM(E6:J6)</f>
+        <v>56</v>
+      </c>
+      <c r="L6" s="7">
+        <v>8</v>
+      </c>
+      <c r="M6" s="7">
+        <v>10</v>
+      </c>
+      <c r="N6" s="7">
+        <v>4</v>
+      </c>
+      <c r="O6" s="7">
+        <v>10</v>
+      </c>
+      <c r="P6" s="7">
+        <f>SUM(L6:O6)</f>
+        <v>32</v>
+      </c>
+      <c r="Q6" s="23">
+        <f>SUM(C6:J6,L6:O6)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="18" customHeight="1" spans="2:17">
+      <c r="B7" s="6">
         <v>2024</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C7" s="8">
+        <v>42</v>
+      </c>
+      <c r="D7" s="7">
+        <v>18</v>
+      </c>
+      <c r="E7" s="7">
+        <v>4</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>28</v>
+      </c>
+      <c r="I7" s="7">
+        <v>9</v>
+      </c>
+      <c r="J7" s="7">
+        <v>15</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" ref="K7:K16" si="0">SUM(E7:J7)</f>
+        <v>56</v>
+      </c>
+      <c r="L7" s="7">
+        <v>4</v>
+      </c>
+      <c r="M7" s="7">
         <v>16</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="N7" s="7">
+        <v>4</v>
+      </c>
+      <c r="O7" s="7">
+        <v>10</v>
+      </c>
+      <c r="P7" s="7">
+        <f t="shared" ref="P7:P16" si="1">SUM(L7:O7)</f>
+        <v>34</v>
+      </c>
+      <c r="Q7" s="23">
+        <f t="shared" ref="Q7:Q16" si="2">SUM(C7:J7,L7:O7)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" ht="18" spans="2:17">
+      <c r="B8" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C8" s="8">
+        <v>43</v>
+      </c>
+      <c r="D8" s="7">
+        <v>15</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>4</v>
+      </c>
+      <c r="H8" s="7">
+        <v>19</v>
+      </c>
+      <c r="I8" s="7">
+        <v>13</v>
+      </c>
+      <c r="J8" s="7">
+        <v>15</v>
+      </c>
+      <c r="K8" s="7">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="L8" s="7">
+        <v>18</v>
+      </c>
+      <c r="M8" s="7">
+        <v>9</v>
+      </c>
+      <c r="N8" s="7">
+        <v>4</v>
+      </c>
+      <c r="O8" s="7">
+        <v>10</v>
+      </c>
+      <c r="P8" s="7">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="Q8" s="23">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" ht="18" spans="2:17">
+      <c r="B9" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C9" s="8">
+        <v>44</v>
+      </c>
+      <c r="D9" s="7">
+        <v>15</v>
+      </c>
+      <c r="E9" s="7">
+        <v>5</v>
+      </c>
+      <c r="F9" s="7">
+        <v>5</v>
+      </c>
+      <c r="G9" s="7">
+        <v>5</v>
+      </c>
+      <c r="H9" s="7">
+        <v>16</v>
+      </c>
+      <c r="I9" s="7">
+        <v>10</v>
+      </c>
+      <c r="J9" s="7">
+        <v>15</v>
+      </c>
+      <c r="K9" s="7">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="L9" s="7">
+        <v>10</v>
+      </c>
+      <c r="M9" s="7">
+        <v>10</v>
+      </c>
+      <c r="N9" s="7">
+        <v>5</v>
+      </c>
+      <c r="O9" s="7">
+        <v>10</v>
+      </c>
+      <c r="P9" s="7">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="Q9" s="23">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" ht="18" spans="2:17">
+      <c r="B10" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C10" s="8">
+        <v>43</v>
+      </c>
+      <c r="D10" s="7">
+        <v>15</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>5</v>
+      </c>
+      <c r="G10" s="7">
+        <v>5</v>
+      </c>
+      <c r="H10" s="7">
+        <v>15</v>
+      </c>
+      <c r="I10" s="7">
+        <v>15</v>
+      </c>
+      <c r="J10" s="7">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="L10" s="7">
+        <v>5</v>
+      </c>
+      <c r="M10" s="7">
+        <v>12</v>
+      </c>
+      <c r="N10" s="7">
+        <v>14</v>
+      </c>
+      <c r="O10" s="7">
+        <v>10</v>
+      </c>
+      <c r="P10" s="7">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="Q10" s="23">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="18" spans="2:17">
+      <c r="B11" s="9">
+        <v>2020</v>
+      </c>
+      <c r="C11" s="8">
+        <v>43</v>
+      </c>
+      <c r="D11" s="7">
+        <v>20</v>
+      </c>
+      <c r="E11" s="7">
+        <v>5</v>
+      </c>
+      <c r="F11" s="7">
+        <v>5</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
+        <v>19</v>
+      </c>
+      <c r="I11" s="7">
+        <v>4</v>
+      </c>
+      <c r="J11" s="7">
+        <v>16</v>
+      </c>
+      <c r="K11" s="7">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="L11" s="7">
+        <v>11</v>
+      </c>
+      <c r="M11" s="7">
+        <v>18</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7">
+        <v>9</v>
+      </c>
+      <c r="P11" s="7">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="Q11" s="23">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" ht="18" spans="2:17">
+      <c r="B12" s="6">
+        <v>2019</v>
+      </c>
+      <c r="C12" s="8">
+        <v>44</v>
+      </c>
+      <c r="D12" s="7">
+        <v>18</v>
+      </c>
+      <c r="E12" s="7">
+        <v>5</v>
+      </c>
+      <c r="F12" s="7">
+        <v>5</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7">
+        <v>15</v>
+      </c>
+      <c r="I12" s="7">
+        <v>15</v>
+      </c>
+      <c r="J12" s="7">
+        <v>10</v>
+      </c>
+      <c r="K12" s="7">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="L12" s="7">
+        <v>10</v>
+      </c>
+      <c r="M12" s="7">
+        <v>13</v>
+      </c>
+      <c r="N12" s="7">
+        <v>5</v>
+      </c>
+      <c r="O12" s="7">
+        <v>10</v>
+      </c>
+      <c r="P12" s="7">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="Q12" s="23">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" ht="18" spans="2:17">
+      <c r="B13" s="6">
+        <v>2018</v>
+      </c>
+      <c r="C13" s="8">
+        <v>32</v>
+      </c>
+      <c r="D13" s="7">
+        <v>20</v>
+      </c>
+      <c r="E13" s="7">
+        <v>4</v>
+      </c>
+      <c r="F13" s="7">
+        <v>4</v>
+      </c>
+      <c r="G13" s="7">
+        <v>4</v>
+      </c>
+      <c r="H13" s="7">
+        <v>4</v>
+      </c>
+      <c r="I13" s="7">
+        <v>18</v>
+      </c>
+      <c r="J13" s="7">
+        <v>14</v>
+      </c>
+      <c r="K13" s="7">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="L13" s="7">
+        <v>10</v>
+      </c>
+      <c r="M13" s="7">
+        <v>20</v>
+      </c>
+      <c r="N13" s="7">
+        <v>10</v>
+      </c>
+      <c r="O13" s="7">
+        <v>10</v>
+      </c>
+      <c r="P13" s="7">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="Q13" s="23">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" ht="18" spans="2:17">
+      <c r="B14" s="6">
+        <v>2017</v>
+      </c>
+      <c r="C14" s="8">
+        <v>47</v>
+      </c>
+      <c r="D14" s="7">
+        <v>20</v>
+      </c>
+      <c r="E14" s="7">
+        <v>5</v>
+      </c>
+      <c r="F14" s="7">
+        <v>5</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
+        <v>4</v>
+      </c>
+      <c r="I14" s="7">
+        <v>9</v>
+      </c>
+      <c r="J14" s="7">
         <v>17</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="K14" s="7">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="L14" s="7">
+        <v>10</v>
+      </c>
+      <c r="M14" s="7">
         <v>18</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7" t="s">
+      <c r="N14" s="7">
+        <v>5</v>
+      </c>
+      <c r="O14" s="7">
+        <v>10</v>
+      </c>
+      <c r="P14" s="7">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="Q14" s="23">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" ht="18" spans="2:17">
+      <c r="B15" s="6">
+        <v>2016</v>
+      </c>
+      <c r="C15" s="8">
+        <v>54</v>
+      </c>
+      <c r="D15" s="7">
+        <v>20</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>5</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
+        <v>15</v>
+      </c>
+      <c r="I15" s="7">
+        <v>10</v>
+      </c>
+      <c r="J15" s="7">
+        <v>10</v>
+      </c>
+      <c r="K15" s="7">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="L15" s="7">
+        <v>10</v>
+      </c>
+      <c r="M15" s="7">
+        <v>13</v>
+      </c>
+      <c r="N15" s="7">
+        <v>5</v>
+      </c>
+      <c r="O15" s="7">
+        <v>8</v>
+      </c>
+      <c r="P15" s="7">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="Q15" s="23">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" ht="18" spans="2:17">
+      <c r="B16" s="6">
+        <v>2015</v>
+      </c>
+      <c r="C16" s="8">
+        <v>32</v>
+      </c>
+      <c r="D16" s="7">
+        <v>20</v>
+      </c>
+      <c r="E16" s="7">
+        <v>4</v>
+      </c>
+      <c r="F16" s="7">
+        <v>4</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>12</v>
+      </c>
+      <c r="I16" s="7">
+        <v>14</v>
+      </c>
+      <c r="J16" s="7">
+        <v>14</v>
+      </c>
+      <c r="K16" s="7">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="L16" s="7">
+        <v>10</v>
+      </c>
+      <c r="M16" s="7">
+        <v>26</v>
+      </c>
+      <c r="N16" s="7">
+        <v>4</v>
+      </c>
+      <c r="O16" s="7">
+        <v>10</v>
+      </c>
+      <c r="P16" s="7">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="Q16" s="23">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" ht="18" hidden="1" spans="2:17">
+      <c r="B17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="C17" s="8">
+        <v>42.4</v>
+      </c>
+      <c r="D17" s="7">
+        <v>18.1</v>
+      </c>
+      <c r="E17" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="F17" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7">
+        <v>28</v>
+      </c>
+      <c r="I17" s="7">
+        <v>9</v>
+      </c>
+      <c r="J17" s="7">
+        <v>15</v>
+      </c>
+      <c r="K17" s="7">
+        <v>56</v>
+      </c>
+      <c r="L17" s="7">
+        <v>4</v>
+      </c>
+      <c r="M17" s="7">
+        <v>16</v>
+      </c>
+      <c r="N17" s="7">
+        <v>4</v>
+      </c>
+      <c r="O17" s="7">
+        <v>10</v>
+      </c>
+      <c r="P17" s="8">
+        <v>40</v>
+      </c>
+      <c r="Q17" s="23"/>
+    </row>
+    <row r="18" ht="18" spans="2:17">
+      <c r="B18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" ht="17.5" spans="2:16">
-      <c r="B7" s="6">
-        <v>2023</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" ht="17.5" spans="2:16">
-      <c r="B8" s="6">
-        <v>2022</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" ht="17.5" spans="2:16">
-      <c r="B9" s="6">
-        <v>2021</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="17.5" spans="2:16">
-      <c r="B10" s="8">
-        <v>2020</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="9"/>
-      <c r="O10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" ht="17.5" spans="2:16">
-      <c r="B11" s="6">
-        <v>2019</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P11" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" ht="17.5" spans="2:16">
-      <c r="B12" s="6">
-        <v>2018</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" ht="17.5" spans="2:16">
-      <c r="B13" s="6">
-        <v>2017</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" ht="17.5" spans="2:16">
-      <c r="B14" s="6">
-        <v>2016</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P14" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" ht="17.5" spans="2:16">
-      <c r="B15" s="6">
-        <v>2015</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" ht="17.5" hidden="1" spans="2:16">
-      <c r="B16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="10">
-        <v>424</v>
-      </c>
-      <c r="D16" s="10">
-        <v>181</v>
-      </c>
-      <c r="E16" s="10">
-        <v>32</v>
-      </c>
-      <c r="F16" s="10">
-        <v>38</v>
-      </c>
-      <c r="G16" s="10">
-        <v>14</v>
-      </c>
-      <c r="H16" s="10">
-        <v>147</v>
-      </c>
-      <c r="I16" s="10">
-        <v>117</v>
-      </c>
-      <c r="J16" s="10">
-        <v>137</v>
-      </c>
-      <c r="K16" s="10">
-        <f>SUM(E16:J16)</f>
-        <v>485</v>
-      </c>
-      <c r="L16" s="10">
-        <v>98</v>
-      </c>
-      <c r="M16" s="10">
-        <v>155</v>
-      </c>
-      <c r="N16" s="10">
-        <v>54</v>
-      </c>
-      <c r="O16" s="10">
-        <v>97</v>
-      </c>
-      <c r="P16" s="10">
-        <f>SUM(L16:O16)</f>
-        <v>404</v>
-      </c>
-    </row>
-    <row r="17" ht="17.5" spans="2:16">
-      <c r="B17" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="2:16">
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-    </row>
-    <row r="19" customHeight="1" spans="2:2">
+      <c r="C18" s="10">
+        <f t="shared" ref="C18:P18" si="3">ROUND(AVERAGE(C6:C16),2)</f>
+        <v>42.73</v>
+      </c>
+      <c r="D18" s="10">
+        <f t="shared" si="3"/>
+        <v>17.91</v>
+      </c>
+      <c r="E18" s="10">
+        <f t="shared" si="3"/>
+        <v>2.91</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" si="3"/>
+        <v>3.82</v>
+      </c>
+      <c r="G18" s="10">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H18" s="10">
+        <f t="shared" si="3"/>
+        <v>15.55</v>
+      </c>
+      <c r="I18" s="10">
+        <f t="shared" si="3"/>
+        <v>11.45</v>
+      </c>
+      <c r="J18" s="10">
+        <f t="shared" si="3"/>
+        <v>13.82</v>
+      </c>
+      <c r="K18" s="10">
+        <f t="shared" si="3"/>
+        <v>49.55</v>
+      </c>
+      <c r="L18" s="10">
+        <f t="shared" si="3"/>
+        <v>9.64</v>
+      </c>
+      <c r="M18" s="10">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="N18" s="10">
+        <f t="shared" si="3"/>
+        <v>5.45</v>
+      </c>
+      <c r="O18" s="10">
+        <f t="shared" si="3"/>
+        <v>9.73</v>
+      </c>
+      <c r="P18" s="10">
+        <f t="shared" si="3"/>
+        <v>39.82</v>
+      </c>
+      <c r="Q18" s="23">
+        <f>SUM(C18:J18,L18:O18)</f>
+        <v>150.01</v>
+      </c>
+    </row>
+    <row r="19" ht="14" customHeight="1" spans="2:16">
       <c r="B19" s="11"/>
-    </row>
-    <row r="20" customHeight="1" spans="2:15">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+    </row>
+    <row r="20" customFormat="1" ht="14" customHeight="1" spans="2:12">
       <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-    </row>
-    <row r="21" ht="16" customHeight="1" spans="2:15">
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+    </row>
+    <row r="21" customFormat="1" ht="14" customHeight="1" spans="2:15">
       <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
       <c r="M21" s="19"/>
       <c r="N21" s="19"/>
       <c r="O21" s="19"/>
     </row>
-    <row r="22" ht="16" customHeight="1" spans="2:15">
+    <row r="22" customFormat="1" ht="16" customHeight="1" spans="2:15">
       <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
       <c r="M22" s="19"/>
       <c r="N22" s="19"/>
       <c r="O22" s="19"/>
     </row>
-    <row r="23" ht="16" customHeight="1" spans="2:11">
+    <row r="23" customFormat="1" ht="16" customHeight="1" spans="2:15">
       <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="19"/>
-    </row>
-    <row r="24" ht="16" customHeight="1" spans="2:10">
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+    </row>
+    <row r="24" customFormat="1" ht="16" customHeight="1" spans="2:12">
       <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="21"/>
-    </row>
-    <row r="25" ht="16" customHeight="1" spans="2:10">
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+    </row>
+    <row r="25" customFormat="1" ht="16" customHeight="1" spans="2:2">
       <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="22"/>
-    </row>
-    <row r="26" customHeight="1" spans="2:3">
+    </row>
+    <row r="26" customFormat="1" ht="16" customHeight="1" spans="2:12">
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
-    </row>
-    <row r="27" customHeight="1" spans="2:2">
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="20"/>
+    </row>
+    <row r="27" customFormat="1" ht="14" customHeight="1" spans="2:12">
       <c r="B27" s="11"/>
-    </row>
-    <row r="28" customHeight="1" spans="2:2">
+      <c r="C27" s="11"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="21"/>
+    </row>
+    <row r="28" customFormat="1" ht="14" customHeight="1" spans="2:12">
       <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="21"/>
+    </row>
+    <row r="29" customFormat="1" ht="14" customHeight="1" spans="2:12">
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="21"/>
+    </row>
+    <row r="30" ht="18.75" spans="2:12">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="E4:K4"/>
     <mergeCell ref="L4:P4"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D21:J25"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="F26:L30"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" orientation="landscape"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>